--- a/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
+++ b/InputData/trans/CIRbTF/Carbon Intensity Ratios by Transport Fuel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipE\InputData\trans\CIRbTF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\CIRbTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CIRbTF Carbon Intensity Ratios by Transporation Fuel</t>
   </si>
@@ -90,7 +90,16 @@
     <t>jet fuel</t>
   </si>
   <si>
-    <t>ratio or flag</t>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ratio or flag (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,19 +514,21 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,6 +584,30 @@
         <v>20</v>
       </c>
       <c r="B8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
         <v>-1</v>
       </c>
     </row>
